--- a/data/trans_orig/P6602-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6602-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>59275</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46188</v>
+        <v>46955</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72041</v>
+        <v>72770</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3357001677413692</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2615839242318564</v>
+        <v>0.2659292532562605</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4080005140766749</v>
+        <v>0.4121265890544544</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>106</v>
@@ -765,19 +765,19 @@
         <v>103684</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>91099</v>
+        <v>92647</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>113414</v>
+        <v>114732</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7272273211109067</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6389541719657583</v>
+        <v>0.6498140263749855</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.795471140698061</v>
+        <v>0.8047147984196007</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>163</v>
@@ -786,19 +786,19 @@
         <v>162959</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>144128</v>
+        <v>146168</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>179731</v>
+        <v>181083</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5106110225188214</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4516042899229393</v>
+        <v>0.457997684979885</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5631621409300357</v>
+        <v>0.5673993459679068</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>39752</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29332</v>
+        <v>28270</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50390</v>
+        <v>52751</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2251340394658692</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1661206112508004</v>
+        <v>0.1601058976912041</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2853794776389176</v>
+        <v>0.2987550869662436</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -836,19 +836,19 @@
         <v>25182</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16099</v>
+        <v>16591</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>36609</v>
+        <v>36479</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1766233736599897</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1129166208198993</v>
+        <v>0.1163685780064375</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2567680229457051</v>
+        <v>0.2558588140636831</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>62</v>
@@ -857,19 +857,19 @@
         <v>64934</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>50978</v>
+        <v>51487</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>81748</v>
+        <v>81150</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2034623828543002</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1597339381663719</v>
+        <v>0.1613282867069218</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2561466147821992</v>
+        <v>0.2542733582700732</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>56590</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>44388</v>
+        <v>43747</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>70049</v>
+        <v>70965</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3204954631576219</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2513917558837112</v>
+        <v>0.2477579996099577</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3967185799746367</v>
+        <v>0.4019084078172503</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>10170</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5445</v>
+        <v>5476</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17346</v>
+        <v>16608</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07133100294616268</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03818963669663318</v>
+        <v>0.03840589324849671</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1216642325422176</v>
+        <v>0.1164848500181782</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>64</v>
@@ -928,19 +928,19 @@
         <v>66760</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>52685</v>
+        <v>52923</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>84942</v>
+        <v>83435</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2091837231143586</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.165080588140485</v>
+        <v>0.1658263530713181</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2661528104864698</v>
+        <v>0.2614309765223166</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>20954</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13585</v>
+        <v>14079</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30213</v>
+        <v>30770</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1186703296351397</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07694025226444272</v>
+        <v>0.07973521645977638</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1711073967185302</v>
+        <v>0.1742616247821616</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -978,19 +978,19 @@
         <v>3538</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8120</v>
+        <v>8453</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02481830228294088</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006020779574810692</v>
+        <v>0.006054199922584972</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0569543710938864</v>
+        <v>0.05928461190842938</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -999,19 +999,19 @@
         <v>24492</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16608</v>
+        <v>16439</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35197</v>
+        <v>35077</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07674287151251966</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05203837588825633</v>
+        <v>0.05150862954486658</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1102840812584034</v>
+        <v>0.1099085737893674</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>251327</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>225894</v>
+        <v>225872</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>274735</v>
+        <v>272677</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4521581366633133</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4064030531650282</v>
+        <v>0.4063635064853732</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4942708333300295</v>
+        <v>0.4905697357445557</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>257</v>
@@ -1124,19 +1124,19 @@
         <v>271481</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>253273</v>
+        <v>255109</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>284774</v>
+        <v>286031</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7950195960708512</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.741698399777219</v>
+        <v>0.747075871283873</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8339467559206477</v>
+        <v>0.8376299207185519</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>496</v>
@@ -1145,19 +1145,19 @@
         <v>522808</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>490686</v>
+        <v>491660</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>550785</v>
+        <v>552884</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5826354948692769</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5468373526002356</v>
+        <v>0.5479228726645501</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6138137202396667</v>
+        <v>0.6161534259521974</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>132917</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>113548</v>
+        <v>114045</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>157202</v>
+        <v>153903</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2391293187892098</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2042825981991873</v>
+        <v>0.2051760559499266</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2828190634365412</v>
+        <v>0.2768849384865941</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -1195,19 +1195,19 @@
         <v>45696</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33647</v>
+        <v>34297</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58858</v>
+        <v>60685</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1338174732716551</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09853248907684309</v>
+        <v>0.1004364105321637</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1723641728988411</v>
+        <v>0.1777139311972001</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>168</v>
@@ -1216,19 +1216,19 @@
         <v>178613</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>156824</v>
+        <v>154467</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>205417</v>
+        <v>204659</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1990524567975788</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1747706478846321</v>
+        <v>0.1721437975145356</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2289240353595596</v>
+        <v>0.2280786922665866</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>129709</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>111364</v>
+        <v>110504</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>150774</v>
+        <v>151257</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2333575431265089</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2003539857193889</v>
+        <v>0.1988062826068728</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2712556860638037</v>
+        <v>0.2721245785780645</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -1266,19 +1266,19 @@
         <v>13852</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7529</v>
+        <v>7577</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23726</v>
+        <v>22587</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04056585915067731</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0220479941547327</v>
+        <v>0.02218924864410757</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06948037455256244</v>
+        <v>0.06614543016532387</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>137</v>
@@ -1287,19 +1287,19 @@
         <v>143561</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>122003</v>
+        <v>122454</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>166572</v>
+        <v>169363</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1599898637941247</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1359643188507929</v>
+        <v>0.1364673389036991</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1856332722327014</v>
+        <v>0.1887436557056222</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>41885</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28684</v>
+        <v>31174</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>55349</v>
+        <v>55544</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07535500142096803</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0516052357540496</v>
+        <v>0.05608497390824734</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09957680209105271</v>
+        <v>0.0999278320400775</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1337,19 +1337,19 @@
         <v>10448</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5209</v>
+        <v>5538</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17933</v>
+        <v>20193</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03059707150681643</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01525304049125876</v>
+        <v>0.01621713508646248</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05251663562525254</v>
+        <v>0.05913353157486061</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>49</v>
@@ -1358,19 +1358,19 @@
         <v>52333</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>39218</v>
+        <v>39043</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>69512</v>
+        <v>68362</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05832218453901965</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04370592269675692</v>
+        <v>0.04351113531019463</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07746710266503165</v>
+        <v>0.07618468570518741</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>270781</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>245919</v>
+        <v>245440</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>295409</v>
+        <v>295514</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4770527383980657</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4332509236497978</v>
+        <v>0.4324066558594424</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5204413736382622</v>
+        <v>0.5206267057055641</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>201</v>
@@ -1483,19 +1483,19 @@
         <v>211294</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>195161</v>
+        <v>192568</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>226836</v>
+        <v>226346</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6937992362438755</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6408239863858507</v>
+        <v>0.6323088394226437</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7448292694485935</v>
+        <v>0.7432212825576426</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>464</v>
@@ -1504,19 +1504,19 @@
         <v>482076</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>453219</v>
+        <v>452094</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>515094</v>
+        <v>512040</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5527377608492803</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5196513979806597</v>
+        <v>0.5183618132393133</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5905955145389316</v>
+        <v>0.5870939117610717</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>117504</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>98017</v>
+        <v>96782</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>138385</v>
+        <v>136528</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2070142377301736</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1726826351100665</v>
+        <v>0.1705061420128871</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2438017289781733</v>
+        <v>0.2405301770300961</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>51</v>
@@ -1554,19 +1554,19 @@
         <v>55561</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>43636</v>
+        <v>43676</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>70877</v>
+        <v>72294</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1824380943012538</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1432802100046265</v>
+        <v>0.1434119514893748</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2327285979229847</v>
+        <v>0.237381175719441</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>166</v>
@@ -1575,19 +1575,19 @@
         <v>173065</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>150723</v>
+        <v>149616</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>198383</v>
+        <v>198832</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1984325721177249</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1728156720750172</v>
+        <v>0.1715468518310145</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2274614363180355</v>
+        <v>0.227977070646017</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>131891</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>113917</v>
+        <v>111776</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>153675</v>
+        <v>152645</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2323605603639627</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2006949900983417</v>
+        <v>0.1969220469468115</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2707394138355801</v>
+        <v>0.2689239504656582</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -1625,19 +1625,19 @@
         <v>26115</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16997</v>
+        <v>17644</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37100</v>
+        <v>37529</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08574887951001015</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0558098213972696</v>
+        <v>0.0579336410696279</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1218207591836472</v>
+        <v>0.1232299482783689</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>150</v>
@@ -1646,19 +1646,19 @@
         <v>158005</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>134601</v>
+        <v>134954</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>179556</v>
+        <v>182696</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1811656923161502</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1543308130509263</v>
+        <v>0.1547352311248599</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2058750119906761</v>
+        <v>0.2094753865597495</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>47437</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35168</v>
+        <v>35197</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>61855</v>
+        <v>62344</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08357246350779798</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06195851074800988</v>
+        <v>0.06200957001727277</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.108973609037287</v>
+        <v>0.1098357385428114</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1696,19 +1696,19 @@
         <v>11577</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6082</v>
+        <v>6541</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20835</v>
+        <v>23246</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03801378994486059</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0199712608060514</v>
+        <v>0.02147628764968142</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06841332347723794</v>
+        <v>0.07633064313743078</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>56</v>
@@ -1717,19 +1717,19 @@
         <v>59014</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>44957</v>
+        <v>46386</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>78306</v>
+        <v>77213</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06766397471684459</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05154697059978323</v>
+        <v>0.05318552260068639</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08978406958285613</v>
+        <v>0.08853033902033224</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>188811</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>167237</v>
+        <v>168139</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>209353</v>
+        <v>213988</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4318057536927821</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3824662954536927</v>
+        <v>0.3845275344952402</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4787832918168016</v>
+        <v>0.4893846170417476</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>110</v>
@@ -1842,19 +1842,19 @@
         <v>114652</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>101724</v>
+        <v>101347</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>126782</v>
+        <v>126103</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6754821430631159</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5993204214135233</v>
+        <v>0.5970951018899415</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7469493400578019</v>
+        <v>0.7429476424245743</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>288</v>
@@ -1863,19 +1863,19 @@
         <v>303463</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>278459</v>
+        <v>275975</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>329057</v>
+        <v>329092</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4999449208399376</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4587522857951851</v>
+        <v>0.4546592902775627</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5421104099654286</v>
+        <v>0.5421683096976584</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>86939</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>70599</v>
+        <v>69260</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>105492</v>
+        <v>105489</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1988265848604827</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1614566776056738</v>
+        <v>0.1583960845239996</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.241258047750793</v>
+        <v>0.2412496795112589</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>30</v>
@@ -1913,19 +1913,19 @@
         <v>32691</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22830</v>
+        <v>22981</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>44743</v>
+        <v>44454</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1926047073510145</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1345041314937373</v>
+        <v>0.1353944771660091</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.263609084610921</v>
+        <v>0.2619066861270239</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>108</v>
@@ -1934,19 +1934,19 @@
         <v>119630</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>101345</v>
+        <v>98865</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>141549</v>
+        <v>140681</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1970867628256836</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.166962660644973</v>
+        <v>0.162877204860841</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2331970759311855</v>
+        <v>0.2317676791296999</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>130353</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>111781</v>
+        <v>110102</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>151135</v>
+        <v>150420</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2981121778397697</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.255639984520504</v>
+        <v>0.2517988590774095</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3456399720768356</v>
+        <v>0.3440047787695678</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -1984,19 +1984,19 @@
         <v>12247</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6779</v>
+        <v>6754</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20588</v>
+        <v>20945</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07215547238452341</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03993986349679164</v>
+        <v>0.03979067434172644</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1212952472500133</v>
+        <v>0.123400233709524</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>133</v>
@@ -2005,19 +2005,19 @@
         <v>142600</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>122703</v>
+        <v>121844</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>166925</v>
+        <v>164532</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2349279614254484</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2021484479779311</v>
+        <v>0.2007338757907432</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2750033262471962</v>
+        <v>0.271061181771366</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>31157</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22072</v>
+        <v>20514</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43683</v>
+        <v>43585</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07125548360696549</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05047751525460599</v>
+        <v>0.04691515566253334</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09990096815294854</v>
+        <v>0.09967745697618366</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2055,19 +2055,19 @@
         <v>10143</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4984</v>
+        <v>5047</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17396</v>
+        <v>18194</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05975767720134612</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02936084561652691</v>
+        <v>0.02973579801510197</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1024909558052015</v>
+        <v>0.1071903479186581</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>40</v>
@@ -2076,19 +2076,19 @@
         <v>41300</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28144</v>
+        <v>29437</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>53911</v>
+        <v>54780</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0680403549089304</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04636653187977147</v>
+        <v>0.04849699145414069</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08881612317567593</v>
+        <v>0.09024775863372747</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>68349</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>57033</v>
+        <v>56237</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>81272</v>
+        <v>81012</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4183760539510283</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3491065778695789</v>
+        <v>0.3442358435607947</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4974782650338485</v>
+        <v>0.495884182257626</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>41</v>
@@ -2201,19 +2201,19 @@
         <v>42917</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>34997</v>
+        <v>35124</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>50610</v>
+        <v>49669</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6676188061639658</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5444063169534042</v>
+        <v>0.5463857200723942</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7872896609223188</v>
+        <v>0.7726562598407976</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>111</v>
@@ -2222,19 +2222,19 @@
         <v>111266</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>96447</v>
+        <v>97240</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>127560</v>
+        <v>126799</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4887567965453299</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4236612721404411</v>
+        <v>0.4271441340250173</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5603332999278381</v>
+        <v>0.556989655594473</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>31393</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22917</v>
+        <v>22507</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>43245</v>
+        <v>42817</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1921628256092318</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1402788591922577</v>
+        <v>0.1377699375482386</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2647100362810614</v>
+        <v>0.2620905520393193</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -2272,19 +2272,19 @@
         <v>12446</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6930</v>
+        <v>6883</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20022</v>
+        <v>19102</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1936120052732635</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1077981985880981</v>
+        <v>0.1070641971411619</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.311468003055237</v>
+        <v>0.2971558449709165</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>43</v>
@@ -2293,19 +2293,19 @@
         <v>43839</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>33740</v>
+        <v>32577</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>57149</v>
+        <v>57319</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1925720424871612</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.148207863200831</v>
+        <v>0.1430996890791736</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2510366520080378</v>
+        <v>0.2517840876828057</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>44505</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>34144</v>
+        <v>34692</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>55816</v>
+        <v>57584</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2724198876962081</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2090034353074055</v>
+        <v>0.2123524178930158</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.341655433806347</v>
+        <v>0.3524775293669149</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -2343,19 +2343,19 @@
         <v>5917</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2013</v>
+        <v>2713</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11707</v>
+        <v>11816</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09203705224886051</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03132065358909487</v>
+        <v>0.04219752717470966</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1821102981297673</v>
+        <v>0.1838028188841116</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>51</v>
@@ -2364,19 +2364,19 @@
         <v>50421</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>38426</v>
+        <v>38968</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>64183</v>
+        <v>63683</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.221483690766382</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1687936424793771</v>
+        <v>0.1711760516676128</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2819362074465769</v>
+        <v>0.2797375411900867</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>19121</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>12206</v>
+        <v>11050</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>27418</v>
+        <v>27230</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1170412327435318</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.07471624491282322</v>
+        <v>0.06763582907988129</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1678273750755606</v>
+        <v>0.1666788530879102</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3</v>
@@ -2414,19 +2414,19 @@
         <v>3004</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>8677</v>
+        <v>7935</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.04673213631391016</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01515066086748154</v>
+        <v>0.01512574950388329</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1349751369300756</v>
+        <v>0.1234403678364816</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>23</v>
@@ -2435,19 +2435,19 @@
         <v>22125</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>14154</v>
+        <v>14228</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>31741</v>
+        <v>31857</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.09718747020112684</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.06217480719353399</v>
+        <v>0.06249948479208866</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1394288183686458</v>
+        <v>0.1399357335271985</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>838543</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>793718</v>
+        <v>795827</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>883581</v>
+        <v>883686</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4411878165102221</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4176034967046004</v>
+        <v>0.4187130965317643</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4648838642809752</v>
+        <v>0.4649388292464644</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>715</v>
@@ -2560,19 +2560,19 @@
         <v>744029</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>711702</v>
+        <v>712872</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>771085</v>
+        <v>771462</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.727573846042354</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6959624015702502</v>
+        <v>0.6971063426906655</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7540319005317628</v>
+        <v>0.7544001275022898</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1522</v>
@@ -2581,19 +2581,19 @@
         <v>1582572</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1532906</v>
+        <v>1527540</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1640842</v>
+        <v>1634593</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5413713283032547</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5243814725230802</v>
+        <v>0.5225457790570832</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5613045294594895</v>
+        <v>0.5591669753483322</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>408505</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>376199</v>
+        <v>373456</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>448312</v>
+        <v>447869</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2149293502860883</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1979319695391413</v>
+        <v>0.1964885432060179</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2358732138726078</v>
+        <v>0.2356400656326232</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>159</v>
@@ -2631,19 +2631,19 @@
         <v>171576</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>151117</v>
+        <v>145697</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>201178</v>
+        <v>198134</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1677816146390502</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1477747494355255</v>
+        <v>0.1424748976333394</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1967288971005069</v>
+        <v>0.1937525811927149</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>547</v>
@@ -2652,19 +2652,19 @@
         <v>580081</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>538982</v>
+        <v>536466</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>628003</v>
+        <v>621474</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1984361374784437</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1843765728371798</v>
+        <v>0.1835160174117438</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2148291665919653</v>
+        <v>0.2125959249244799</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>493047</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>456587</v>
+        <v>453148</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>534835</v>
+        <v>531920</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2594097996390545</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2402270793242236</v>
+        <v>0.2384174015176482</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2813960118041842</v>
+        <v>0.2798624677080785</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>67</v>
@@ -2702,19 +2702,19 @@
         <v>68301</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>52717</v>
+        <v>53231</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>85471</v>
+        <v>85914</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06679002926427934</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05155147696293647</v>
+        <v>0.05205361874376292</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08358040212619056</v>
+        <v>0.08401412404413967</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>535</v>
@@ -2723,19 +2723,19 @@
         <v>561348</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>520143</v>
+        <v>518389</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>608364</v>
+        <v>606374</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1920275845622977</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1779321866721858</v>
+        <v>0.1773323296040709</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2081109786084762</v>
+        <v>0.2074303912347275</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>160554</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>135685</v>
+        <v>136776</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>186669</v>
+        <v>184795</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.08447303356463515</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07138856173406545</v>
+        <v>0.07196286421399885</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09821331634383811</v>
+        <v>0.09722711698736454</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>37</v>
@@ -2773,19 +2773,19 @@
         <v>38711</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>27602</v>
+        <v>27721</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>53259</v>
+        <v>52846</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03785451005431648</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02699161600203293</v>
+        <v>0.0271075418337685</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0520811652577659</v>
+        <v>0.05167756899482471</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>194</v>
@@ -2794,19 +2794,19 @@
         <v>199264</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>172244</v>
+        <v>172296</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>228242</v>
+        <v>226715</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0681649496560038</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05892188571769552</v>
+        <v>0.05893974463720841</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07807789422668875</v>
+        <v>0.07755549918792019</v>
       </c>
     </row>
     <row r="33">
@@ -3139,19 +3139,19 @@
         <v>20990</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14128</v>
+        <v>14024</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29883</v>
+        <v>30380</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2533433305819418</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1705197176173313</v>
+        <v>0.1692648173965002</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3606781549394011</v>
+        <v>0.3666799906615242</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>55</v>
@@ -3160,19 +3160,19 @@
         <v>56072</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>46988</v>
+        <v>47399</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64931</v>
+        <v>64270</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6386288449460173</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5351657317738342</v>
+        <v>0.539848099569766</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7395201507533756</v>
+        <v>0.73199626046479</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>74</v>
@@ -3181,19 +3181,19 @@
         <v>77062</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>65305</v>
+        <v>65030</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>90236</v>
+        <v>91102</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4515738433484072</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3826765769387194</v>
+        <v>0.3810695651342409</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5287700268875449</v>
+        <v>0.5338460216901141</v>
       </c>
     </row>
     <row r="5">
@@ -3210,19 +3210,19 @@
         <v>23347</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16329</v>
+        <v>16235</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32406</v>
+        <v>31634</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2817997635032948</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1970914940355855</v>
+        <v>0.1959516097500305</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3911417702772871</v>
+        <v>0.3818177079421008</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -3231,19 +3231,19 @@
         <v>19984</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13593</v>
+        <v>13594</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28803</v>
+        <v>28061</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2276097786523172</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.154819279824391</v>
+        <v>0.1548232440944461</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3280525014206788</v>
+        <v>0.3195993803108073</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>44</v>
@@ -3252,19 +3252,19 @@
         <v>43332</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33560</v>
+        <v>32749</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>56395</v>
+        <v>55222</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2539188593858731</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1966554646592531</v>
+        <v>0.1919059563385334</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3304659301386924</v>
+        <v>0.3235939789486489</v>
       </c>
     </row>
     <row r="6">
@@ -3281,19 +3281,19 @@
         <v>21020</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13548</v>
+        <v>13963</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30206</v>
+        <v>28930</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2537102682436067</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1635210954739838</v>
+        <v>0.1685361033714703</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3645833376175843</v>
+        <v>0.3491797710134116</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -3302,19 +3302,19 @@
         <v>6533</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2907</v>
+        <v>2010</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14256</v>
+        <v>13677</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07440963972757121</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03310905415854191</v>
+        <v>0.02289247289666283</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1623658020801216</v>
+        <v>0.1557698247179087</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>25</v>
@@ -3323,19 +3323,19 @@
         <v>27553</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18691</v>
+        <v>18309</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>38171</v>
+        <v>38702</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1614595756922718</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1095286748918013</v>
+        <v>0.1072856006758394</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2236764216229764</v>
+        <v>0.2267918726658482</v>
       </c>
     </row>
     <row r="7">
@@ -3352,19 +3352,19 @@
         <v>17494</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10552</v>
+        <v>11009</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26287</v>
+        <v>26429</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2111466376711568</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1273583781043166</v>
+        <v>0.132878676920028</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3172812387327366</v>
+        <v>0.3189894967689331</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -3373,19 +3373,19 @@
         <v>5211</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1849</v>
+        <v>1879</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11055</v>
+        <v>10646</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05935173667409432</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02105665664274128</v>
+        <v>0.02140267285883795</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1259149982057078</v>
+        <v>0.1212484979794484</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -3394,19 +3394,19 @@
         <v>22705</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14424</v>
+        <v>14527</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32495</v>
+        <v>33379</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1330477215734479</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0845205791431778</v>
+        <v>0.08512675547920069</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.190414522641622</v>
+        <v>0.195596736880997</v>
       </c>
     </row>
     <row r="8">
@@ -3498,19 +3498,19 @@
         <v>135350</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>117455</v>
+        <v>116401</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>154786</v>
+        <v>154748</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3536525265073869</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3068954317766242</v>
+        <v>0.3041417673392093</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4044367743419724</v>
+        <v>0.4043387437944751</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>161</v>
@@ -3519,19 +3519,19 @@
         <v>170988</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>153891</v>
+        <v>154375</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>187743</v>
+        <v>186947</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6196475474426046</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5576877788235137</v>
+        <v>0.5594442830784522</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6803652651553114</v>
+        <v>0.677481738898833</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>289</v>
@@ -3540,19 +3540,19 @@
         <v>306337</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>280707</v>
+        <v>276810</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>332970</v>
+        <v>329549</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4650899909857847</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4261774469271431</v>
+        <v>0.4202605053217909</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5055248626081028</v>
+        <v>0.5003314434515587</v>
       </c>
     </row>
     <row r="10">
@@ -3569,19 +3569,19 @@
         <v>103421</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>85491</v>
+        <v>85372</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>120384</v>
+        <v>122059</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2702264186517257</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2233791428603041</v>
+        <v>0.223067146902481</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3145494132900058</v>
+        <v>0.318925862326867</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -3590,19 +3590,19 @@
         <v>66621</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52905</v>
+        <v>52586</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>81612</v>
+        <v>83660</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2414289389461766</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1917234303712897</v>
+        <v>0.1905665360920873</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2957555972394278</v>
+        <v>0.3031758023419153</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>162</v>
@@ -3611,19 +3611,19 @@
         <v>170041</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>150161</v>
+        <v>146933</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>196077</v>
+        <v>194952</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2581618389822586</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2279792791304611</v>
+        <v>0.2230784672720552</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2976902266874948</v>
+        <v>0.2959822290119523</v>
       </c>
     </row>
     <row r="11">
@@ -3640,19 +3640,19 @@
         <v>87241</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>72476</v>
+        <v>70574</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>104934</v>
+        <v>104536</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2279516457145493</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1893705458928384</v>
+        <v>0.1844012753744357</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2741807403320758</v>
+        <v>0.2731406832466296</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -3661,19 +3661,19 @@
         <v>22005</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14006</v>
+        <v>14068</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>33135</v>
+        <v>33288</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0797431693625297</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05075500180830878</v>
+        <v>0.05098191117967155</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1200770808806807</v>
+        <v>0.1206315783774166</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>106</v>
@@ -3682,19 +3682,19 @@
         <v>109246</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>89105</v>
+        <v>90268</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>128891</v>
+        <v>130564</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1658603450548348</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1352811378119344</v>
+        <v>0.1370479486233067</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.195686077887807</v>
+        <v>0.1982262500332287</v>
       </c>
     </row>
     <row r="12">
@@ -3711,19 +3711,19 @@
         <v>56707</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>43182</v>
+        <v>43684</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>71471</v>
+        <v>71563</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1481694091263382</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1128286755310182</v>
+        <v>0.114140718109395</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1867448739519405</v>
+        <v>0.1869854178464775</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>15</v>
@@ -3732,19 +3732,19 @@
         <v>16330</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9462</v>
+        <v>9539</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25743</v>
+        <v>26047</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05918034424868908</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0342890494002404</v>
+        <v>0.03456994995772358</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09328919876690921</v>
+        <v>0.09439236449241949</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>68</v>
@@ -3753,19 +3753,19 @@
         <v>73038</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>58353</v>
+        <v>57395</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>91171</v>
+        <v>90775</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1108878249771219</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08859322977738615</v>
+        <v>0.08713914660263881</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1384177903829063</v>
+        <v>0.1378179551993836</v>
       </c>
     </row>
     <row r="13">
@@ -3857,19 +3857,19 @@
         <v>151659</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>132530</v>
+        <v>132940</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>173643</v>
+        <v>173266</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3583562804487336</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3131562162941602</v>
+        <v>0.3141258318358977</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4103049021008059</v>
+        <v>0.4094117659729435</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>168</v>
@@ -3878,19 +3878,19 @@
         <v>177666</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>161229</v>
+        <v>159300</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>193498</v>
+        <v>192858</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6216039722761046</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5640960543285264</v>
+        <v>0.5573487208847964</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.676998372747405</v>
+        <v>0.6747570690602577</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>312</v>
@@ -3899,19 +3899,19 @@
         <v>329324</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>300906</v>
+        <v>299138</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>354260</v>
+        <v>356229</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4644752887198145</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4243941940462561</v>
+        <v>0.4219005803524414</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4996446459904319</v>
+        <v>0.5024215734691926</v>
       </c>
     </row>
     <row r="15">
@@ -3928,19 +3928,19 @@
         <v>117442</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>98720</v>
+        <v>100540</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>136207</v>
+        <v>136728</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2775046494767752</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2332670867940408</v>
+        <v>0.2375666081567107</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.321845880823204</v>
+        <v>0.3230758239787355</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>65</v>
@@ -3949,19 +3949,19 @@
         <v>66808</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>52624</v>
+        <v>53669</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>80975</v>
+        <v>81485</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2337438727868769</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.184117004962107</v>
+        <v>0.1877720937403819</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2833100066409384</v>
+        <v>0.2850930316133261</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>181</v>
@@ -3970,19 +3970,19 @@
         <v>184250</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>162032</v>
+        <v>160887</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>210468</v>
+        <v>209025</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2598640381146458</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2285276394708558</v>
+        <v>0.2269135324712341</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.296842536140529</v>
+        <v>0.29480679162759</v>
       </c>
     </row>
     <row r="16">
@@ -3999,19 +3999,19 @@
         <v>97714</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>80822</v>
+        <v>81191</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>115628</v>
+        <v>116964</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2308892774461268</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1909748175748694</v>
+        <v>0.1918481544885456</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2732188992297463</v>
+        <v>0.2763750275365683</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -4020,19 +4020,19 @@
         <v>19820</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12769</v>
+        <v>12312</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30963</v>
+        <v>29362</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06934514622364014</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04467372866239406</v>
+        <v>0.04307477589457181</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1083302578697675</v>
+        <v>0.1027309855426265</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>112</v>
@@ -4041,19 +4041,19 @@
         <v>117534</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>99445</v>
+        <v>98227</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>139714</v>
+        <v>140163</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1657684671615474</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1402566197216761</v>
+        <v>0.1385378333781462</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1970508641391249</v>
+        <v>0.1976849149451765</v>
       </c>
     </row>
     <row r="17">
@@ -4070,19 +4070,19 @@
         <v>56392</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>42937</v>
+        <v>42180</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>70181</v>
+        <v>70596</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1332497926283644</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1014575444976187</v>
+        <v>0.09966862252986466</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1658324280502696</v>
+        <v>0.1668132309590845</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -4091,19 +4091,19 @@
         <v>21524</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14067</v>
+        <v>13438</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>33213</v>
+        <v>32102</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07530700871337838</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04921556847130164</v>
+        <v>0.04701720847950891</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1162034108595119</v>
+        <v>0.112317419992109</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>76</v>
@@ -4112,19 +4112,19 @@
         <v>77916</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>61605</v>
+        <v>61630</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>94761</v>
+        <v>97278</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1098922060039922</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08688716566065197</v>
+        <v>0.08692257124175319</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1336505913875277</v>
+        <v>0.1371991675501119</v>
       </c>
     </row>
     <row r="18">
@@ -4216,19 +4216,19 @@
         <v>140952</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>120657</v>
+        <v>120105</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>160680</v>
+        <v>161943</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3855445911259367</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3300300769525205</v>
+        <v>0.3285216909604893</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4395061217526747</v>
+        <v>0.4429598822639044</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>125</v>
@@ -4237,19 +4237,19 @@
         <v>146601</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>130250</v>
+        <v>130145</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>161609</v>
+        <v>162909</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6505757779024154</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5780149035311257</v>
+        <v>0.5775511853905902</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7171797602408999</v>
+        <v>0.7229475581507465</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>246</v>
@@ -4258,19 +4258,19 @@
         <v>287553</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>263147</v>
+        <v>262766</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>314548</v>
+        <v>316648</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.486608877114785</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4453078691126205</v>
+        <v>0.4446633605922967</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5322908183378265</v>
+        <v>0.5358449870579587</v>
       </c>
     </row>
     <row r="20">
@@ -4287,19 +4287,19 @@
         <v>99487</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>82521</v>
+        <v>81433</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>118524</v>
+        <v>119888</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2721238787828975</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2257182324821846</v>
+        <v>0.2227422051839542</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3241955185039795</v>
+        <v>0.3279271852799775</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>45</v>
@@ -4308,19 +4308,19 @@
         <v>52453</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>41004</v>
+        <v>39475</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>68520</v>
+        <v>67882</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.232774306850681</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1819655616954148</v>
+        <v>0.1751799826827432</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3040735253057893</v>
+        <v>0.3012431626497181</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>135</v>
@@ -4329,19 +4329,19 @@
         <v>151940</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>128745</v>
+        <v>129673</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>174723</v>
+        <v>175720</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2571187149013719</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.21786751530793</v>
+        <v>0.2194376359687498</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2956731400152045</v>
+        <v>0.2973597251174529</v>
       </c>
     </row>
     <row r="21">
@@ -4358,19 +4358,19 @@
         <v>69031</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>53763</v>
+        <v>54555</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>84618</v>
+        <v>87672</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1888192333273702</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1470562375886236</v>
+        <v>0.1492222261647881</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2314540074504488</v>
+        <v>0.2398083337343688</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -4379,19 +4379,19 @@
         <v>10241</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4943</v>
+        <v>4505</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21243</v>
+        <v>20001</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04544625212662472</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02193370999317969</v>
+        <v>0.01999390746712611</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09427056096795941</v>
+        <v>0.08875936797478261</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>71</v>
@@ -4400,19 +4400,19 @@
         <v>79272</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>62674</v>
+        <v>62037</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>97607</v>
+        <v>96740</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1341468449515586</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1060597729989669</v>
+        <v>0.1049807268137146</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1651742162607234</v>
+        <v>0.1637065093936849</v>
       </c>
     </row>
     <row r="22">
@@ -4429,19 +4429,19 @@
         <v>56123</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42607</v>
+        <v>42022</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>72988</v>
+        <v>72703</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1535122967637957</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1165410524292385</v>
+        <v>0.1149432271985784</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1996425161852153</v>
+        <v>0.1988630025577384</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -4450,19 +4450,19 @@
         <v>16045</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9086</v>
+        <v>9351</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25043</v>
+        <v>25715</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07120366312027882</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04032024504491935</v>
+        <v>0.04149540213187804</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1111363068249057</v>
+        <v>0.1141152546060674</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>65</v>
@@ -4471,19 +4471,19 @@
         <v>72168</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>57406</v>
+        <v>56838</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>93498</v>
+        <v>90927</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1221255630322846</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09714500063903979</v>
+        <v>0.09618396234816823</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1582206802331236</v>
+        <v>0.1538709936246334</v>
       </c>
     </row>
     <row r="23">
@@ -4575,19 +4575,19 @@
         <v>65131</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>52219</v>
+        <v>52547</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>77214</v>
+        <v>78637</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4139196162441883</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3318623731339357</v>
+        <v>0.3339497136466497</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4907091088312565</v>
+        <v>0.4997550771195898</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>35</v>
@@ -4596,19 +4596,19 @@
         <v>39198</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>30500</v>
+        <v>30329</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>48015</v>
+        <v>47419</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5624604154356883</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4376525044215372</v>
+        <v>0.4351927105506376</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6889688079704139</v>
+        <v>0.6804112844702987</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>95</v>
@@ -4617,19 +4617,19 @@
         <v>104329</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>88982</v>
+        <v>86836</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>120769</v>
+        <v>119293</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4595143419888019</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3919206873494492</v>
+        <v>0.3824673168218485</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5319262545942586</v>
+        <v>0.5254245806697644</v>
       </c>
     </row>
     <row r="25">
@@ -4646,19 +4646,19 @@
         <v>38117</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28062</v>
+        <v>28587</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>49647</v>
+        <v>50478</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2422394473631916</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1783396389988486</v>
+        <v>0.1816784664054299</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3155205385773566</v>
+        <v>0.3207963441648733</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -4667,19 +4667,19 @@
         <v>17588</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10056</v>
+        <v>10960</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26263</v>
+        <v>26580</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2523662659155895</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1442888222052426</v>
+        <v>0.1572663096595885</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3768561372701336</v>
+        <v>0.3813935515965037</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>52</v>
@@ -4688,19 +4688,19 @@
         <v>55704</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>42796</v>
+        <v>44228</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>70671</v>
+        <v>70805</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2453478830056226</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1884959613745471</v>
+        <v>0.1948018742307123</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3112702069599981</v>
+        <v>0.3118582610498304</v>
       </c>
     </row>
     <row r="26">
@@ -4717,19 +4717,19 @@
         <v>34148</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>24168</v>
+        <v>24520</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>44666</v>
+        <v>45794</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.217016262543073</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1535944942312632</v>
+        <v>0.1558309038249282</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2838629252290616</v>
+        <v>0.2910328779797201</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -4738,19 +4738,19 @@
         <v>4277</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1096</v>
+        <v>1042</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10661</v>
+        <v>10584</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06137230603548927</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01572198498590629</v>
+        <v>0.0149557900125702</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1529688475151746</v>
+        <v>0.1518729347669754</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>37</v>
@@ -4759,19 +4759,19 @@
         <v>38425</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>29187</v>
+        <v>28245</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>52620</v>
+        <v>51641</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1692412165665065</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1285551784186221</v>
+        <v>0.1244036622078405</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2317649562415398</v>
+        <v>0.2274524699304862</v>
       </c>
     </row>
     <row r="27">
@@ -4788,19 +4788,19 @@
         <v>19956</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>12734</v>
+        <v>12130</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>30735</v>
+        <v>29264</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1268246738495471</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08092561903603449</v>
+        <v>0.07708963513009646</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1953290653837607</v>
+        <v>0.1859808010732341</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>8</v>
@@ -4809,19 +4809,19 @@
         <v>8628</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>4000</v>
+        <v>3984</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>15151</v>
+        <v>15452</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1238010126132329</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05740125080953139</v>
+        <v>0.05716197204008508</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2173985720337364</v>
+        <v>0.221722962421562</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>26</v>
@@ -4830,19 +4830,19 @@
         <v>28584</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>19034</v>
+        <v>19969</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>40505</v>
+        <v>40062</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.125896558439069</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.08383653981957762</v>
+        <v>0.08795526397842385</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1784036614830754</v>
+        <v>0.1764538907174904</v>
       </c>
     </row>
     <row r="28">
@@ -4934,19 +4934,19 @@
         <v>514081</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>475911</v>
+        <v>479828</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>550716</v>
+        <v>551213</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3641521593359334</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3371142845822016</v>
+        <v>0.3398893299570261</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.39010293131729</v>
+        <v>0.3904553143461196</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>544</v>
@@ -4955,19 +4955,19 @@
         <v>590525</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>561815</v>
+        <v>560379</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>619775</v>
+        <v>620068</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6251628614299949</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5947686118144572</v>
+        <v>0.5932487530049827</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6561281807582702</v>
+        <v>0.6564390388687895</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1016</v>
@@ -4976,19 +4976,19 @@
         <v>1104606</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1047573</v>
+        <v>1055349</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1150268</v>
+        <v>1155312</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4687855635551369</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4445812182021868</v>
+        <v>0.4478814886657503</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.488164269171682</v>
+        <v>0.4903048130148757</v>
       </c>
     </row>
     <row r="30">
@@ -5005,19 +5005,19 @@
         <v>381813</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>346832</v>
+        <v>347058</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>415948</v>
+        <v>416847</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2704594513734969</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2456806889348093</v>
+        <v>0.2458407595556581</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.294639401818371</v>
+        <v>0.2952759820855298</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>207</v>
@@ -5026,19 +5026,19 @@
         <v>223454</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>200137</v>
+        <v>199757</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>250093</v>
+        <v>250892</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2365613707532471</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.211876422536367</v>
+        <v>0.2114743727515033</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2647622470729861</v>
+        <v>0.2656080321235591</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>574</v>
@@ -5047,19 +5047,19 @@
         <v>605267</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>559115</v>
+        <v>561954</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>649922</v>
+        <v>646472</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.256870462326927</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2372836626266176</v>
+        <v>0.2384888906398585</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2758215681823123</v>
+        <v>0.2743576470964534</v>
       </c>
     </row>
     <row r="31">
@@ -5076,19 +5076,19 @@
         <v>309154</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>279761</v>
+        <v>281035</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>346553</v>
+        <v>342338</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2189910349618094</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1981706641856288</v>
+        <v>0.1990731264234466</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2454831181571125</v>
+        <v>0.2424969726342665</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>58</v>
@@ -5097,19 +5097,19 @@
         <v>62876</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>49139</v>
+        <v>46759</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>80502</v>
+        <v>80533</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06656396972697094</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05202111734185822</v>
+        <v>0.04950126900898004</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08522399611052321</v>
+        <v>0.08525647776554707</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>351</v>
@@ -5118,19 +5118,19 @@
         <v>372030</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>337599</v>
+        <v>336656</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>406473</v>
+        <v>410539</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1578864036087388</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1432741479802146</v>
+        <v>0.1428742170070969</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1725039233092108</v>
+        <v>0.1742296031752397</v>
       </c>
     </row>
     <row r="32">
@@ -5147,19 +5147,19 @@
         <v>206672</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>178607</v>
+        <v>179297</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>233646</v>
+        <v>236930</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1463973543287602</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1265175360372919</v>
+        <v>0.1270062956707945</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.165504624820884</v>
+        <v>0.1678308173107731</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>63</v>
@@ -5168,19 +5168,19 @@
         <v>67739</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>53084</v>
+        <v>53491</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>85782</v>
+        <v>85307</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07171179808978705</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05619760800805674</v>
+        <v>0.05662900800687332</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09081351400490535</v>
+        <v>0.09031077697519171</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>256</v>
@@ -5189,19 +5189,19 @@
         <v>274410</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>244407</v>
+        <v>243515</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>306992</v>
+        <v>308102</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1164575705091973</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1037241448795931</v>
+        <v>0.103345972297002</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1302848906311939</v>
+        <v>0.1307557939418828</v>
       </c>
     </row>
     <row r="33">
@@ -5534,19 +5534,19 @@
         <v>27936</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19254</v>
+        <v>19803</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36732</v>
+        <v>36881</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3531309342870798</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2433834071339854</v>
+        <v>0.2503219088481188</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4643274009529554</v>
+        <v>0.4662089121068951</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -5555,19 +5555,19 @@
         <v>37481</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28769</v>
+        <v>28855</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47318</v>
+        <v>47475</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4080434707162047</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3132016832247585</v>
+        <v>0.3141342119889631</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5151363631745153</v>
+        <v>0.5168451784864015</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -5576,19 +5576,19 @@
         <v>65417</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53457</v>
+        <v>53255</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>78369</v>
+        <v>78333</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3826341086781762</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3126781946559765</v>
+        <v>0.3115007763935281</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4583934779046122</v>
+        <v>0.4581837474757428</v>
       </c>
     </row>
     <row r="5">
@@ -5605,19 +5605,19 @@
         <v>20451</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12944</v>
+        <v>12954</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30108</v>
+        <v>29560</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2585133844164442</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1636206316009843</v>
+        <v>0.1637509016903793</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3805872416849692</v>
+        <v>0.373666996679726</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -5626,19 +5626,19 @@
         <v>30717</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22608</v>
+        <v>22157</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>40125</v>
+        <v>39385</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3344025414149975</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2461243034949805</v>
+        <v>0.2412197548694315</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4368262228271687</v>
+        <v>0.4287789711860802</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -5647,19 +5647,19 @@
         <v>51167</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>39116</v>
+        <v>39921</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>62189</v>
+        <v>64683</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2992867884315988</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2287971053010166</v>
+        <v>0.2335066273457663</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3637569105220499</v>
+        <v>0.3783421813869345</v>
       </c>
     </row>
     <row r="6">
@@ -5676,19 +5676,19 @@
         <v>13392</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7909</v>
+        <v>7349</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21085</v>
+        <v>21289</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.169286479788281</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09997259749499228</v>
+        <v>0.092899990312744</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2665281935073036</v>
+        <v>0.2691126268893842</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -5697,19 +5697,19 @@
         <v>13533</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8062</v>
+        <v>7400</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22662</v>
+        <v>21871</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1473324775400101</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08776941435696346</v>
+        <v>0.08056718378945749</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2467107316801893</v>
+        <v>0.238103074227206</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -5718,19 +5718,19 @@
         <v>26925</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18246</v>
+        <v>17985</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>38713</v>
+        <v>36983</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1574911266861847</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1067252359953173</v>
+        <v>0.1051959345057113</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2264407847751281</v>
+        <v>0.2163179102666735</v>
       </c>
     </row>
     <row r="7">
@@ -5747,19 +5747,19 @@
         <v>17330</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10882</v>
+        <v>10931</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26508</v>
+        <v>25509</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2190692015081949</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1375530026894737</v>
+        <v>0.1381763731856405</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3350764787692525</v>
+        <v>0.3224517548682969</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -5768,19 +5768,19 @@
         <v>10124</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4812</v>
+        <v>4900</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17100</v>
+        <v>17831</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1102215103287876</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05238901961266834</v>
+        <v>0.05334966111996684</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1861643080328738</v>
+        <v>0.1941245124628495</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -5789,19 +5789,19 @@
         <v>27455</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18531</v>
+        <v>18519</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37866</v>
+        <v>37992</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1605879762040403</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1083919539835548</v>
+        <v>0.1083198024823175</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2214866053712907</v>
+        <v>0.2222216879365607</v>
       </c>
     </row>
     <row r="8">
@@ -5893,19 +5893,19 @@
         <v>93319</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>77344</v>
+        <v>78527</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>111983</v>
+        <v>110296</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2718874464075989</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.225343738801406</v>
+        <v>0.22879012907124</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3262651067498114</v>
+        <v>0.3213493615177454</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>159</v>
@@ -5914,19 +5914,19 @@
         <v>153255</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>138224</v>
+        <v>137219</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>169452</v>
+        <v>168126</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5638317232468815</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5085353636554711</v>
+        <v>0.5048371752506803</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6234224455646808</v>
+        <v>0.6185438026112262</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>251</v>
@@ -5935,19 +5935,19 @@
         <v>246574</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>224471</v>
+        <v>220854</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>272013</v>
+        <v>269482</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4009089933394251</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3649717209979546</v>
+        <v>0.3590899492506705</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4422710626076102</v>
+        <v>0.4381558224188718</v>
       </c>
     </row>
     <row r="10">
@@ -5964,19 +5964,19 @@
         <v>102178</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>86082</v>
+        <v>84973</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119098</v>
+        <v>121034</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.297698380264073</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2508001640590177</v>
+        <v>0.2475715076012984</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3469934008520751</v>
+        <v>0.3526338367751337</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -5985,19 +5985,19 @@
         <v>58937</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46540</v>
+        <v>47070</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73634</v>
+        <v>74006</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2168320205214071</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1712249379905434</v>
+        <v>0.1731725726340636</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2709045182727573</v>
+        <v>0.2722713015019323</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>159</v>
@@ -6006,19 +6006,19 @@
         <v>161115</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>140034</v>
+        <v>140537</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>182386</v>
+        <v>183881</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2619603862136261</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2276834863670009</v>
+        <v>0.2285016434250616</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2965454069311357</v>
+        <v>0.2989752047141655</v>
       </c>
     </row>
     <row r="11">
@@ -6035,19 +6035,19 @@
         <v>78128</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>63289</v>
+        <v>63614</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>94366</v>
+        <v>94312</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2276262867849656</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1843936219060684</v>
+        <v>0.1853411995686834</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2749369703627394</v>
+        <v>0.2747790621546004</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>43</v>
@@ -6056,19 +6056,19 @@
         <v>41820</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30641</v>
+        <v>30309</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>54139</v>
+        <v>54149</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1538574927382224</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1127312227333749</v>
+        <v>0.1115074769636401</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1991796858442722</v>
+        <v>0.199215483947617</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>119</v>
@@ -6077,19 +6077,19 @@
         <v>119948</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>99624</v>
+        <v>102711</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>138804</v>
+        <v>142562</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1950249834600653</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1619812032581408</v>
+        <v>0.1670002750487147</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2256846196550572</v>
+        <v>0.2317940647908164</v>
       </c>
     </row>
     <row r="12">
@@ -6106,19 +6106,19 @@
         <v>69602</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>55192</v>
+        <v>55179</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>85086</v>
+        <v>85277</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2027878865433626</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1608037563934036</v>
+        <v>0.1607658067339633</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.247898699903872</v>
+        <v>0.2484568031811223</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -6127,19 +6127,19 @@
         <v>17798</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10740</v>
+        <v>11123</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26660</v>
+        <v>27176</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06547876349348897</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03951202825062194</v>
+        <v>0.0409233777302083</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09808452853350466</v>
+        <v>0.09998340968921973</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>80</v>
@@ -6148,19 +6148,19 @@
         <v>87400</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>69882</v>
+        <v>69740</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>107351</v>
+        <v>106619</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1421056369868835</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1136228179338578</v>
+        <v>0.113391328676419</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1745446701574939</v>
+        <v>0.1733544174040533</v>
       </c>
     </row>
     <row r="13">
@@ -6252,19 +6252,19 @@
         <v>151309</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>131186</v>
+        <v>131113</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>171630</v>
+        <v>172300</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3310365858100319</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2870101041627243</v>
+        <v>0.2868517595090439</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3754948367004619</v>
+        <v>0.3769614864269715</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>180</v>
@@ -6273,19 +6273,19 @@
         <v>177626</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>160496</v>
+        <v>158605</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>194348</v>
+        <v>193986</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5596031300990044</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5056371893968772</v>
+        <v>0.4996787811931284</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6122847494648533</v>
+        <v>0.6111454871559797</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>323</v>
@@ -6294,19 +6294,19 @@
         <v>328935</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>303095</v>
+        <v>304028</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>356946</v>
+        <v>356055</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4247112129795717</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3913471974384294</v>
+        <v>0.3925514336369514</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.460878437783489</v>
+        <v>0.4597281701212225</v>
       </c>
     </row>
     <row r="15">
@@ -6323,19 +6323,19 @@
         <v>134023</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>113887</v>
+        <v>116471</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>153476</v>
+        <v>154158</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2932180272984246</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2491632513243237</v>
+        <v>0.2548180953149695</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3357773879295742</v>
+        <v>0.3372690828548005</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>82</v>
@@ -6344,19 +6344,19 @@
         <v>82047</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>68412</v>
+        <v>68408</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>98642</v>
+        <v>97404</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.258487226598931</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2155307600972926</v>
+        <v>0.2155163532923192</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3107689924206558</v>
+        <v>0.3068671092228313</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>210</v>
@@ -6365,19 +6365,19 @@
         <v>216071</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>190771</v>
+        <v>190580</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>242083</v>
+        <v>240606</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2789841208579814</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2463177109469456</v>
+        <v>0.2460713983469081</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3125699973246245</v>
+        <v>0.3106633971041405</v>
       </c>
     </row>
     <row r="16">
@@ -6394,19 +6394,19 @@
         <v>96894</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79358</v>
+        <v>79073</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>114628</v>
+        <v>113262</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2119870942021682</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1736210361419411</v>
+        <v>0.1729965918964188</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2507857888956944</v>
+        <v>0.247796624098816</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -6415,19 +6415,19 @@
         <v>29760</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21319</v>
+        <v>21456</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42910</v>
+        <v>42508</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09375762831412779</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06716562371679996</v>
+        <v>0.06759694179809696</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1351848559552779</v>
+        <v>0.133918857250474</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>123</v>
@@ -6436,19 +6436,19 @@
         <v>126654</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>107658</v>
+        <v>107093</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>148788</v>
+        <v>147017</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1635324913119309</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1390049099968614</v>
+        <v>0.1382750482085686</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.192111214701803</v>
+        <v>0.18982338302501</v>
       </c>
     </row>
     <row r="17">
@@ -6465,19 +6465,19 @@
         <v>74850</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>59593</v>
+        <v>59278</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>92019</v>
+        <v>92299</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1637582926893753</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1303777944306512</v>
+        <v>0.1296884290015551</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2013212121949155</v>
+        <v>0.2019334235737673</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -6486,19 +6486,19 @@
         <v>27981</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18639</v>
+        <v>18924</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39043</v>
+        <v>38423</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0881520149879368</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05872138992095822</v>
+        <v>0.05962028258636488</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1230028615998861</v>
+        <v>0.1210504982049148</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>98</v>
@@ -6507,19 +6507,19 @@
         <v>102831</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>85382</v>
+        <v>83480</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>124325</v>
+        <v>122120</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.132772174850516</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1102433034419246</v>
+        <v>0.107787416860407</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1605244901206244</v>
+        <v>0.1576781070563922</v>
       </c>
     </row>
     <row r="18">
@@ -6611,19 +6611,19 @@
         <v>129355</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>112545</v>
+        <v>110989</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>150788</v>
+        <v>148749</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3557772982984437</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3095426300258624</v>
+        <v>0.305263268190697</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4147258405249192</v>
+        <v>0.4091195434579852</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>121</v>
@@ -6632,19 +6632,19 @@
         <v>129660</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>114659</v>
+        <v>114656</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>147496</v>
+        <v>145949</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5355173386257266</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4735612215346161</v>
+        <v>0.4735479701239304</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6091838434741597</v>
+        <v>0.6027928257270063</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>237</v>
@@ -6653,19 +6653,19 @@
         <v>259015</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>235619</v>
+        <v>232681</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>285102</v>
+        <v>285036</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4276255540703096</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3890003202742149</v>
+        <v>0.3841494624914196</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4706950151740048</v>
+        <v>0.4705852466800633</v>
       </c>
     </row>
     <row r="20">
@@ -6682,19 +6682,19 @@
         <v>89745</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>73075</v>
+        <v>73183</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>109027</v>
+        <v>109688</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2468355015744174</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2009852990424129</v>
+        <v>0.2012826764073755</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2998685617390575</v>
+        <v>0.3016849734178207</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>56</v>
@@ -6703,19 +6703,19 @@
         <v>61623</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>47282</v>
+        <v>48098</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>75853</v>
+        <v>76605</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2545112114462448</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1952818068713096</v>
+        <v>0.1986521340423578</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3132843502937651</v>
+        <v>0.3163893863841337</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>137</v>
@@ -6724,19 +6724,19 @@
         <v>151368</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>130489</v>
+        <v>130233</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>174462</v>
+        <v>175155</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2499037459405448</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2154330340771533</v>
+        <v>0.2150106109874726</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2880312433787207</v>
+        <v>0.2891754612406437</v>
       </c>
     </row>
     <row r="21">
@@ -6756,16 +6756,16 @@
         <v>65703</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>99064</v>
+        <v>99232</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2250393915360152</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1807103807079897</v>
+        <v>0.1807079442367593</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2724661176874452</v>
+        <v>0.2729263949294051</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>23</v>
@@ -6774,19 +6774,19 @@
         <v>26649</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17963</v>
+        <v>17083</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>40089</v>
+        <v>39978</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1100652970169168</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07419016364303484</v>
+        <v>0.07055529443206963</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1655742340435758</v>
+        <v>0.1651174605894975</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>98</v>
@@ -6795,19 +6795,19 @@
         <v>108470</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>91372</v>
+        <v>90045</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>128957</v>
+        <v>129011</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1790803045395661</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1508521508495142</v>
+        <v>0.1486608086173406</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2129033164641194</v>
+        <v>0.2129925955576596</v>
       </c>
     </row>
     <row r="22">
@@ -6824,19 +6824,19 @@
         <v>62663</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>48777</v>
+        <v>48525</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>80530</v>
+        <v>79629</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1723478085911236</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1341548966901391</v>
+        <v>0.1334628685750798</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2214894397098691</v>
+        <v>0.2190118616022478</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -6845,19 +6845,19 @@
         <v>24189</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15620</v>
+        <v>15594</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35088</v>
+        <v>35141</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09990615291111177</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06451268949466589</v>
+        <v>0.06440433137194009</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1449187362393196</v>
+        <v>0.1451400578545409</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>77</v>
@@ -6866,19 +6866,19 @@
         <v>86852</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>67875</v>
+        <v>68859</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>105689</v>
+        <v>106976</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1433903954495795</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1120599318687922</v>
+        <v>0.1136842211242332</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1744897808543653</v>
+        <v>0.1766138180242345</v>
       </c>
     </row>
     <row r="23">
@@ -6970,19 +6970,19 @@
         <v>59848</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>48283</v>
+        <v>47074</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>74108</v>
+        <v>73909</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.363556286958451</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2933005418476784</v>
+        <v>0.2859600852876462</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4501834149210654</v>
+        <v>0.4489741315208651</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>51</v>
@@ -6991,19 +6991,19 @@
         <v>59607</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>49219</v>
+        <v>48534</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>71096</v>
+        <v>69973</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5629694820490075</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.464862722604434</v>
+        <v>0.4583934114705577</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6714858901954548</v>
+        <v>0.6608739649676402</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>102</v>
@@ -7012,19 +7012,19 @@
         <v>119455</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>103059</v>
+        <v>102836</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>137746</v>
+        <v>136883</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.441611225171131</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3809968493527284</v>
+        <v>0.380174321992296</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5092331068982813</v>
+        <v>0.5060422329061324</v>
       </c>
     </row>
     <row r="25">
@@ -7041,19 +7041,19 @@
         <v>54064</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>41639</v>
+        <v>42368</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>66945</v>
+        <v>68078</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3284217966281534</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2529437757040049</v>
+        <v>0.2573693779896502</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4066702096282581</v>
+        <v>0.4135495665061893</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>21</v>
@@ -7062,19 +7062,19 @@
         <v>24676</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15938</v>
+        <v>16846</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35150</v>
+        <v>34869</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.233055120119695</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1505327119872284</v>
+        <v>0.1591027731465336</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3319812353784977</v>
+        <v>0.3293255766899052</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>69</v>
@@ -7083,19 +7083,19 @@
         <v>78740</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>63601</v>
+        <v>65016</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>93629</v>
+        <v>96740</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2910930730247027</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2351253490578854</v>
+        <v>0.2403589503440606</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3461382107375657</v>
+        <v>0.3576395170949646</v>
       </c>
     </row>
     <row r="26">
@@ -7112,19 +7112,19 @@
         <v>28556</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>19282</v>
+        <v>19667</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>39195</v>
+        <v>39622</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1734702110154405</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1171336930667341</v>
+        <v>0.1194725282095127</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2380952851348635</v>
+        <v>0.2406931124983139</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -7133,19 +7133,19 @@
         <v>13748</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7533</v>
+        <v>7789</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>22387</v>
+        <v>22502</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1298452614422788</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07115023277111096</v>
+        <v>0.07356481813010385</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.211441696144566</v>
+        <v>0.2125223604646002</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>37</v>
@@ -7154,19 +7154,19 @@
         <v>42304</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>29597</v>
+        <v>31062</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>54835</v>
+        <v>55373</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1563943964389873</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1094169634040058</v>
+        <v>0.1148325756805242</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2027177878184993</v>
+        <v>0.2047081670577317</v>
       </c>
     </row>
     <row r="27">
@@ -7183,19 +7183,19 @@
         <v>22150</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14275</v>
+        <v>14204</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>32866</v>
+        <v>31492</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1345517053979551</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08671346338455256</v>
+        <v>0.08628352033817567</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1996515288172639</v>
+        <v>0.1913009029253008</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>7</v>
@@ -7204,19 +7204,19 @@
         <v>7849</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3320</v>
+        <v>3383</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>15275</v>
+        <v>14813</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.07413013638901873</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03135984968253313</v>
+        <v>0.03194943699500932</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1442701893618825</v>
+        <v>0.1399039003044866</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>27</v>
@@ -7225,19 +7225,19 @@
         <v>29998</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>20682</v>
+        <v>21109</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>43333</v>
+        <v>43189</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1109013053651789</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07645890933187192</v>
+        <v>0.078036414226319</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1601978846897134</v>
+        <v>0.1596654365530171</v>
       </c>
     </row>
     <row r="28">
@@ -7329,19 +7329,19 @@
         <v>461768</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>425605</v>
+        <v>421511</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>493993</v>
+        <v>497070</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3280491699384839</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3023587797764483</v>
+        <v>0.2994503380549747</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3509427912243903</v>
+        <v>0.3531290561259915</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>550</v>
@@ -7350,19 +7350,19 @@
         <v>557627</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>526969</v>
+        <v>528069</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>589085</v>
+        <v>589885</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5418713440679994</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5120789175384541</v>
+        <v>0.5131485856892533</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.572439825859707</v>
+        <v>0.5732177330097514</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>978</v>
@@ -7371,19 +7371,19 @@
         <v>1019395</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>972385</v>
+        <v>969589</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1071497</v>
+        <v>1073501</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4183516549635691</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3990592083922574</v>
+        <v>0.3979117770715121</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4397339290434389</v>
+        <v>0.4405561556941152</v>
       </c>
     </row>
     <row r="30">
@@ -7400,19 +7400,19 @@
         <v>400462</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>365826</v>
+        <v>366101</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>433741</v>
+        <v>438152</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2844965938907961</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2598902176683243</v>
+        <v>0.2600860020985424</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3081385958088855</v>
+        <v>0.3112720314886462</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>251</v>
@@ -7421,19 +7421,19 @@
         <v>257999</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>230893</v>
+        <v>228877</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>285137</v>
+        <v>284798</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2507089373846423</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2243693177419341</v>
+        <v>0.2224098074373133</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2770798787650016</v>
+        <v>0.2767512484896576</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>625</v>
@@ -7442,19 +7442,19 @@
         <v>658461</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>614830</v>
+        <v>615854</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>704317</v>
+        <v>705037</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2702272162731521</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2523212541059036</v>
+        <v>0.2527418150232804</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2890461341988744</v>
+        <v>0.2893417623491794</v>
       </c>
     </row>
     <row r="31">
@@ -7471,19 +7471,19 @@
         <v>298791</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>269957</v>
+        <v>268475</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>330086</v>
+        <v>331628</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2122675891614385</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1917830746696447</v>
+        <v>0.1907298629123956</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2344995542588111</v>
+        <v>0.2355955519215053</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>118</v>
@@ -7492,19 +7492,19 @@
         <v>125510</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>106314</v>
+        <v>104438</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>149973</v>
+        <v>148450</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1219636098358077</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1033097166779703</v>
+        <v>0.1014872388911485</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1457350893328331</v>
+        <v>0.1442552706615095</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>403</v>
@@ -7513,19 +7513,19 @@
         <v>424301</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>382641</v>
+        <v>390543</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>457713</v>
+        <v>463859</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1741299461692811</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.157032815505069</v>
+        <v>0.1602758261330553</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1878420000499253</v>
+        <v>0.1903638833829025</v>
       </c>
     </row>
     <row r="32">
@@ -7542,19 +7542,19 @@
         <v>246596</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>218464</v>
+        <v>216462</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>278133</v>
+        <v>277678</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1751866470092815</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1552015754278629</v>
+        <v>0.1537789436786778</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1975911754489004</v>
+        <v>0.1972680240237573</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>86</v>
@@ -7563,19 +7563,19 @@
         <v>87941</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>72120</v>
+        <v>70960</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>105521</v>
+        <v>105881</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08545610871155065</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07008185448160038</v>
+        <v>0.06895512493256149</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.102539187730745</v>
+        <v>0.1028896516646762</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>308</v>
@@ -7584,19 +7584,19 @@
         <v>334537</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>298960</v>
+        <v>298477</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>371324</v>
+        <v>369872</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1372911825939977</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1226908925251082</v>
+        <v>0.1224925276643453</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1523883321317551</v>
+        <v>0.1517925748294237</v>
       </c>
     </row>
     <row r="33">
@@ -7929,19 +7929,19 @@
         <v>8552</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3145</v>
+        <v>3120</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18825</v>
+        <v>19082</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1785896454490244</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06567658728484392</v>
+        <v>0.06514308130094591</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3930993762487654</v>
+        <v>0.3984631304929891</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -7950,19 +7950,19 @@
         <v>19443</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11436</v>
+        <v>11934</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27814</v>
+        <v>28293</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4258281077327774</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2504589095396856</v>
+        <v>0.2613678806936433</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6091775114839497</v>
+        <v>0.619668732367705</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -7971,19 +7971,19 @@
         <v>27995</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17972</v>
+        <v>16950</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41541</v>
+        <v>41906</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2992622104069724</v>
+        <v>0.2992622104069725</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.19211680965257</v>
+        <v>0.1811950380474174</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4440686249382206</v>
+        <v>0.4479683334953328</v>
       </c>
     </row>
     <row r="5">
@@ -8000,19 +8000,19 @@
         <v>9425</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2901</v>
+        <v>3098</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21542</v>
+        <v>20403</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1968102436542252</v>
+        <v>0.1968102436542251</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06057116084694725</v>
+        <v>0.064687333585162</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4498383998148181</v>
+        <v>0.4260553372707003</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -8021,19 +8021,19 @@
         <v>13678</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7012</v>
+        <v>7081</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22372</v>
+        <v>21724</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.299569227963197</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1535701488627829</v>
+        <v>0.1550745811896649</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4899725211405431</v>
+        <v>0.4757927656741374</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -8042,19 +8042,19 @@
         <v>23103</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13854</v>
+        <v>13002</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>36397</v>
+        <v>36781</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2469650217356613</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1480988248856642</v>
+        <v>0.138988778780039</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3890808883201061</v>
+        <v>0.3931785508557858</v>
       </c>
     </row>
     <row r="6">
@@ -8071,19 +8071,19 @@
         <v>22256</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11213</v>
+        <v>11734</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>33433</v>
+        <v>32258</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4647503624599141</v>
+        <v>0.464750362459914</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2341420271393498</v>
+        <v>0.2450324871588292</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6981307867350851</v>
+        <v>0.6736072018581039</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -8092,19 +8092,19 @@
         <v>5557</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1323</v>
+        <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13721</v>
+        <v>14079</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1217080590777987</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02897142918136449</v>
+        <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3005008514022053</v>
+        <v>0.3083536666458038</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -8113,19 +8113,19 @@
         <v>27813</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>15853</v>
+        <v>16906</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>41651</v>
+        <v>43683</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2973176974294506</v>
+        <v>0.2973176974294507</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1694636600020202</v>
+        <v>0.180720951386008</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4452365379537472</v>
+        <v>0.4669600868014226</v>
       </c>
     </row>
     <row r="7">
@@ -8142,19 +8142,19 @@
         <v>7655</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1368</v>
+        <v>1382</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21096</v>
+        <v>21857</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1598497484368364</v>
+        <v>0.1598497484368363</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02856881851517615</v>
+        <v>0.02885703100523681</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4405146862926156</v>
+        <v>0.4564123781996676</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -8163,19 +8163,19 @@
         <v>6981</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2074</v>
+        <v>1927</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15940</v>
+        <v>14897</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1528946052262271</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04542505177609941</v>
+        <v>0.04220896486729831</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3491016000094105</v>
+        <v>0.3262681503195772</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -8184,19 +8184,19 @@
         <v>14636</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5881</v>
+        <v>6259</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29466</v>
+        <v>29328</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1564550704279154</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06286632639591189</v>
+        <v>0.06690436654655171</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3149854226337113</v>
+        <v>0.31350774458491</v>
       </c>
     </row>
     <row r="8">
@@ -8288,19 +8288,19 @@
         <v>78127</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>61318</v>
+        <v>61093</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>97124</v>
+        <v>96586</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.393508922280099</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3088472380438442</v>
+        <v>0.3077116834292732</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4891957795883531</v>
+        <v>0.486485237985399</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>88</v>
@@ -8309,19 +8309,19 @@
         <v>91516</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>77316</v>
+        <v>78839</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>102919</v>
+        <v>104338</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5729914993042403</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4840850120187467</v>
+        <v>0.4936183454213924</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.644385708707488</v>
+        <v>0.6532731237651629</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>135</v>
@@ -8330,19 +8330,19 @@
         <v>169642</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>149244</v>
+        <v>149726</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>193959</v>
+        <v>192843</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4735252447687848</v>
+        <v>0.4735252447687847</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.416587929470643</v>
+        <v>0.4179311470733297</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5414001038060388</v>
+        <v>0.5382860796988185</v>
       </c>
     </row>
     <row r="10">
@@ -8359,19 +8359,19 @@
         <v>56743</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42093</v>
+        <v>41325</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73767</v>
+        <v>77043</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2858047518089414</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2120135486103553</v>
+        <v>0.208144246600228</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3715513912654425</v>
+        <v>0.3880487996344419</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -8380,19 +8380,19 @@
         <v>41864</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30966</v>
+        <v>31439</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54224</v>
+        <v>52554</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2621134185125436</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1938825363543813</v>
+        <v>0.1968406853902123</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3395004533263001</v>
+        <v>0.3290454407482311</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>75</v>
@@ -8401,19 +8401,19 @@
         <v>98607</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>79562</v>
+        <v>79597</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>120990</v>
+        <v>120265</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2752427607975435</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2220819747187271</v>
+        <v>0.2221812532052418</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3377212020308276</v>
+        <v>0.3356979484566174</v>
       </c>
     </row>
     <row r="11">
@@ -8430,19 +8430,19 @@
         <v>33205</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21665</v>
+        <v>20977</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48458</v>
+        <v>47235</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1672461294005818</v>
+        <v>0.1672461294005817</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1091243874043713</v>
+        <v>0.1056568900151568</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2440753014825589</v>
+        <v>0.2379112365130475</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -8451,19 +8451,19 @@
         <v>15272</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7905</v>
+        <v>8833</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24112</v>
+        <v>25330</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.09561720731916601</v>
+        <v>0.09561720731916598</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0494968803278313</v>
+        <v>0.0553052853139083</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1509706001833806</v>
+        <v>0.1585944210325454</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>37</v>
@@ -8472,19 +8472,19 @@
         <v>48476</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35230</v>
+        <v>35776</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>66657</v>
+        <v>66914</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1353127628097254</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.098337070002997</v>
+        <v>0.09986236135370335</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1860607977309818</v>
+        <v>0.1867774414748167</v>
       </c>
     </row>
     <row r="12">
@@ -8501,19 +8501,19 @@
         <v>30464</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17687</v>
+        <v>18509</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>48304</v>
+        <v>47939</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1534401965103778</v>
+        <v>0.1534401965103779</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08908510254672579</v>
+        <v>0.09322433747479565</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2432951494391618</v>
+        <v>0.2414586791693482</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -8522,19 +8522,19 @@
         <v>11065</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5196</v>
+        <v>5285</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19963</v>
+        <v>20493</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06927787486405017</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03253306592439461</v>
+        <v>0.0330873647913496</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1249896340227936</v>
+        <v>0.1283071981417633</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>25</v>
@@ -8543,19 +8543,19 @@
         <v>41529</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>27574</v>
+        <v>27771</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>59497</v>
+        <v>60269</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1159192316239463</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07696808796718452</v>
+        <v>0.07751714742623497</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1660749966563053</v>
+        <v>0.1682308975830979</v>
       </c>
     </row>
     <row r="13">
@@ -8647,19 +8647,19 @@
         <v>108736</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>92655</v>
+        <v>91519</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>127344</v>
+        <v>127125</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3951982815536129</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3367505874684499</v>
+        <v>0.3326211810181748</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4628278522731872</v>
+        <v>0.462031646518213</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>144</v>
@@ -8668,19 +8668,19 @@
         <v>105162</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>94507</v>
+        <v>93977</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>116273</v>
+        <v>115739</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.588247441951484</v>
+        <v>0.5882474419514842</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.528646315502393</v>
+        <v>0.5256825056277104</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6504039077149877</v>
+        <v>0.6474153709178538</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>238</v>
@@ -8689,19 +8689,19 @@
         <v>213898</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>194184</v>
+        <v>192647</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>233568</v>
+        <v>236881</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4712293852068353</v>
+        <v>0.4712293852068352</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4277990405214287</v>
+        <v>0.4244127569505691</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5145626633763095</v>
+        <v>0.5218610071331258</v>
       </c>
     </row>
     <row r="15">
@@ -8718,19 +8718,19 @@
         <v>87989</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>71060</v>
+        <v>73399</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>104806</v>
+        <v>107494</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3197918928603909</v>
+        <v>0.3197918928603908</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2582630436013303</v>
+        <v>0.2667670836165734</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3809125904350678</v>
+        <v>0.3906814927933994</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>60</v>
@@ -8739,19 +8739,19 @@
         <v>42676</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>32838</v>
+        <v>33219</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>52489</v>
+        <v>52757</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2387192308973276</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1836897866135503</v>
+        <v>0.1858194270481241</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2936082641897149</v>
+        <v>0.2951081093154831</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>136</v>
@@ -8760,19 +8760,19 @@
         <v>130665</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>111316</v>
+        <v>111763</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>151537</v>
+        <v>150033</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2878619743233078</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2452353302637244</v>
+        <v>0.2462191607503887</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3338441776401436</v>
+        <v>0.3305301223182232</v>
       </c>
     </row>
     <row r="16">
@@ -8789,19 +8789,19 @@
         <v>49548</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36622</v>
+        <v>36319</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63215</v>
+        <v>62166</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1800820619364815</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1331004486239856</v>
+        <v>0.1319993052267888</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2297518998270086</v>
+        <v>0.2259384743041488</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -8810,19 +8810,19 @@
         <v>14583</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9012</v>
+        <v>9182</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21209</v>
+        <v>21693</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0815758884921647</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0504081759906109</v>
+        <v>0.05135917557550984</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.118640083011539</v>
+        <v>0.1213474344798761</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>63</v>
@@ -8831,19 +8831,19 @@
         <v>64132</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>49530</v>
+        <v>49639</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>80563</v>
+        <v>79418</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1412860730381546</v>
+        <v>0.1412860730381545</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1091181827384773</v>
+        <v>0.10935648173603</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1774856759190304</v>
+        <v>0.1749612350041999</v>
       </c>
     </row>
     <row r="17">
@@ -8860,19 +8860,19 @@
         <v>28870</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20322</v>
+        <v>19088</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>43671</v>
+        <v>42702</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1049277636495148</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07385835988689525</v>
+        <v>0.06937470208406279</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1587201594143605</v>
+        <v>0.1552000430201684</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -8881,19 +8881,19 @@
         <v>16350</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10382</v>
+        <v>10209</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23668</v>
+        <v>23727</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.09145743865902353</v>
+        <v>0.09145743865902355</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05807632411750299</v>
+        <v>0.05710687130928274</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1323920431309831</v>
+        <v>0.1327209383698462</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>45</v>
@@ -8902,19 +8902,19 @@
         <v>45220</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>33851</v>
+        <v>33219</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>59141</v>
+        <v>60782</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.09962256743170246</v>
+        <v>0.09962256743170245</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07457649642507934</v>
+        <v>0.07318233309597449</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1302913106911728</v>
+        <v>0.1339050567995591</v>
       </c>
     </row>
     <row r="18">
@@ -9006,19 +9006,19 @@
         <v>110421</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>94374</v>
+        <v>93322</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>127649</v>
+        <v>126279</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.3859352158865361</v>
+        <v>0.385935215886536</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3298487452908794</v>
+        <v>0.3261705288237145</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4461480481996357</v>
+        <v>0.4413597797513312</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>216</v>
@@ -9027,19 +9027,19 @@
         <v>136857</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>124270</v>
+        <v>124828</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>147922</v>
+        <v>148509</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.6110024973597533</v>
+        <v>0.6110024973597536</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5548047517752462</v>
+        <v>0.5572986642054779</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6604024029060922</v>
+        <v>0.6630232964958541</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>321</v>
@@ -9048,19 +9048,19 @@
         <v>247279</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>227346</v>
+        <v>227816</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>269822</v>
+        <v>269824</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4847631952463617</v>
+        <v>0.4847631952463616</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4456877247610724</v>
+        <v>0.4466078241350166</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5289574955597314</v>
+        <v>0.5289606860870592</v>
       </c>
     </row>
     <row r="20">
@@ -9077,19 +9077,19 @@
         <v>77295</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>63291</v>
+        <v>63721</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>93436</v>
+        <v>94598</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2701530330978009</v>
+        <v>0.2701530330978008</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2212091976677541</v>
+        <v>0.2227121293332339</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3265678197476258</v>
+        <v>0.3306298478289308</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>82</v>
@@ -9098,19 +9098,19 @@
         <v>52253</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43147</v>
+        <v>42533</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>63033</v>
+        <v>63210</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2332828902843533</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1926311309167227</v>
+        <v>0.1898880916929466</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.281410814904109</v>
+        <v>0.2822039083171822</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>159</v>
@@ -9119,19 +9119,19 @@
         <v>129547</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>112749</v>
+        <v>111901</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>147930</v>
+        <v>147703</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2539632000438355</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2210315586974367</v>
+        <v>0.2193706775586794</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2900012759760454</v>
+        <v>0.2895555259297098</v>
       </c>
     </row>
     <row r="21">
@@ -9148,19 +9148,19 @@
         <v>58263</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>45024</v>
+        <v>45756</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>72513</v>
+        <v>71550</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2036344792619535</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1573646007117904</v>
+        <v>0.1599236224833748</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.253440829849786</v>
+        <v>0.2500739386146471</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>28</v>
@@ -9169,19 +9169,19 @@
         <v>18773</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13141</v>
+        <v>12886</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>27673</v>
+        <v>25635</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08381333862658755</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05866729630648314</v>
+        <v>0.0575309274219257</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1235464639947491</v>
+        <v>0.1144488955343157</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>82</v>
@@ -9190,19 +9190,19 @@
         <v>77036</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>61278</v>
+        <v>63302</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>92961</v>
+        <v>93450</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1510205180674568</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1201298091152964</v>
+        <v>0.1240970119276574</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1822399788855576</v>
+        <v>0.1831985024438514</v>
       </c>
     </row>
     <row r="22">
@@ -9219,19 +9219,19 @@
         <v>40135</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28278</v>
+        <v>29246</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54418</v>
+        <v>54383</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1402772717537097</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09883522976028844</v>
+        <v>0.1022176948348045</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.190197530975775</v>
+        <v>0.1900729181410842</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -9240,19 +9240,19 @@
         <v>16105</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10690</v>
+        <v>10725</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24227</v>
+        <v>23413</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07190127372930559</v>
+        <v>0.07190127372930562</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04772462249768336</v>
+        <v>0.0478809405716339</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.108160779682458</v>
+        <v>0.1045281099911166</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>57</v>
@@ -9261,19 +9261,19 @@
         <v>56240</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42513</v>
+        <v>41450</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>70930</v>
+        <v>72709</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1102530866423459</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08334295412563912</v>
+        <v>0.08125851092357241</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.139051573591582</v>
+        <v>0.1425376005663724</v>
       </c>
     </row>
     <row r="23">
@@ -9365,19 +9365,19 @@
         <v>61118</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>50248</v>
+        <v>49021</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>74608</v>
+        <v>73269</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3788313018723265</v>
+        <v>0.3788313018723264</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.311452260839529</v>
+        <v>0.3038489565812626</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4624493996735231</v>
+        <v>0.4541452469371638</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>94</v>
@@ -9386,19 +9386,19 @@
         <v>55900</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>47270</v>
+        <v>47570</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>63113</v>
+        <v>63508</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5508867720589692</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4658359953696747</v>
+        <v>0.4687957417344288</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6219676366256806</v>
+        <v>0.6258576388509905</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>159</v>
@@ -9407,19 +9407,19 @@
         <v>117018</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>103297</v>
+        <v>101993</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>133453</v>
+        <v>131701</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4452642634837972</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3930552611306409</v>
+        <v>0.3880923356875343</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5077991575634155</v>
+        <v>0.5011346173786875</v>
       </c>
     </row>
     <row r="25">
@@ -9436,19 +9436,19 @@
         <v>43712</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33810</v>
+        <v>33083</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>55732</v>
+        <v>54409</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2709431010190385</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2095657507066783</v>
+        <v>0.2050577817889935</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3454498208910166</v>
+        <v>0.3372461658253771</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>43</v>
@@ -9457,19 +9457,19 @@
         <v>25340</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>19034</v>
+        <v>19256</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33060</v>
+        <v>32888</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.249723513949336</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1875745234051298</v>
+        <v>0.1897607795224611</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3257997015767768</v>
+        <v>0.3241065931448476</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>90</v>
@@ -9478,19 +9478,19 @@
         <v>69052</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>55149</v>
+        <v>58089</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>81920</v>
+        <v>83131</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2627499292955029</v>
+        <v>0.262749929295503</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2098482535958296</v>
+        <v>0.2210350295143257</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3117113946080923</v>
+        <v>0.3163226137873085</v>
       </c>
     </row>
     <row r="26">
@@ -9507,19 +9507,19 @@
         <v>34621</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>25699</v>
+        <v>26437</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>45740</v>
+        <v>47000</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2145906716503072</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1592939935434697</v>
+        <v>0.1638687629354236</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2835158119080207</v>
+        <v>0.2913229471743228</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>19</v>
@@ -9528,19 +9528,19 @@
         <v>12486</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7916</v>
+        <v>7737</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>19198</v>
+        <v>18334</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1230476029715261</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07800667464540127</v>
+        <v>0.07625140477037366</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.189191670799643</v>
+        <v>0.1806808747320138</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>56</v>
@@ -9549,19 +9549,19 @@
         <v>47107</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>36334</v>
+        <v>36711</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>59465</v>
+        <v>59787</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1792446453906562</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.138252498011807</v>
+        <v>0.1396898349184666</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2262696736780222</v>
+        <v>0.2274958612213237</v>
       </c>
     </row>
     <row r="27">
@@ -9578,19 +9578,19 @@
         <v>21882</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14680</v>
+        <v>13874</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>32458</v>
+        <v>32146</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1356349254583278</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09099365737055511</v>
+        <v>0.08599814461940283</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2011857618821831</v>
+        <v>0.1992494395099507</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>12</v>
@@ -9599,19 +9599,19 @@
         <v>7747</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>4419</v>
+        <v>4325</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>12779</v>
+        <v>13134</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.07634211102016868</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04355089368062815</v>
+        <v>0.04262413254682927</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1259358691610927</v>
+        <v>0.1294373731994944</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>33</v>
@@ -9620,19 +9620,19 @@
         <v>29629</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>20946</v>
+        <v>20372</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>40853</v>
+        <v>39052</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1127411618300437</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07970307353966417</v>
+        <v>0.07751752575868275</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1554507376320119</v>
+        <v>0.1485966695938845</v>
       </c>
     </row>
     <row r="28">
@@ -9724,19 +9724,19 @@
         <v>366955</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>329381</v>
+        <v>331253</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>398929</v>
+        <v>400142</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3786874131400884</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3399116819955249</v>
+        <v>0.3418443690421307</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4116833472355822</v>
+        <v>0.4129355090302667</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>555</v>
@@ -9745,19 +9745,19 @@
         <v>408878</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>385455</v>
+        <v>384291</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>430465</v>
+        <v>431814</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5762031214644295</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5431946779874173</v>
+        <v>0.5415553252297849</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6066249665496726</v>
+        <v>0.6085253379866394</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>871</v>
@@ -9766,19 +9766,19 @@
         <v>775832</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>732995</v>
+        <v>732231</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>815021</v>
+        <v>820670</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.4621834312267665</v>
+        <v>0.4621834312267666</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4366643830377809</v>
+        <v>0.4362091690485825</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4855292572473179</v>
+        <v>0.4888946550426477</v>
       </c>
     </row>
     <row r="30">
@@ -9795,19 +9795,19 @@
         <v>275164</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>244521</v>
+        <v>244999</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>306489</v>
+        <v>307006</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2839613141751517</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2523390625604869</v>
+        <v>0.2528325392749728</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3162884686217674</v>
+        <v>0.3168219498496377</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>235</v>
@@ -9816,19 +9816,19 @@
         <v>175811</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>156310</v>
+        <v>156266</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>198440</v>
+        <v>198163</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2477576490988476</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2202763353018843</v>
+        <v>0.220214687279628</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2796482515741796</v>
+        <v>0.2792568257054888</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>474</v>
@@ -9837,19 +9837,19 @@
         <v>450974</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>417714</v>
+        <v>416975</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>491099</v>
+        <v>490434</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2686569016822917</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.248843333016173</v>
+        <v>0.2484028540039812</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2925602624642091</v>
+        <v>0.2921645692318418</v>
       </c>
     </row>
     <row r="31">
@@ -9866,19 +9866,19 @@
         <v>197893</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>171275</v>
+        <v>169386</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>228522</v>
+        <v>231272</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2042199097624377</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1767505922731832</v>
+        <v>0.1748012558679731</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2358283704019055</v>
+        <v>0.2386664609337186</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>84</v>
@@ -9887,19 +9887,19 @@
         <v>66671</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>53288</v>
+        <v>52599</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>82486</v>
+        <v>81161</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09395517388382986</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07509534743270804</v>
+        <v>0.07412414272586798</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1162423343843228</v>
+        <v>0.1143739773231745</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>251</v>
@@ -9908,19 +9908,19 @@
         <v>264564</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>234648</v>
+        <v>235635</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>297093</v>
+        <v>294064</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1576075848018085</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1397857333718578</v>
+        <v>0.1403739078071204</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1769861162857471</v>
+        <v>0.1751815673573727</v>
       </c>
     </row>
     <row r="32">
@@ -9937,19 +9937,19 @@
         <v>129007</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>104584</v>
+        <v>105784</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>157391</v>
+        <v>157456</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1331313629223223</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1079282879045454</v>
+        <v>0.1091659088118699</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1624231214359346</v>
+        <v>0.1624899741027089</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>69</v>
@@ -9958,19 +9958,19 @@
         <v>58247</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>46001</v>
+        <v>45771</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>74853</v>
+        <v>74339</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.08208405555289301</v>
+        <v>0.082084055552893</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06482541507762252</v>
+        <v>0.06450189760423608</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1054853499958753</v>
+        <v>0.1047608260071074</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>167</v>
@@ -9979,19 +9979,19 @@
         <v>187254</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>157156</v>
+        <v>157779</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>215381</v>
+        <v>219235</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1115520822891331</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0936217949571691</v>
+        <v>0.09399303629981592</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1283078429473888</v>
+        <v>0.130604259821749</v>
       </c>
     </row>
     <row r="33">
